--- a/mean_variance.xlsx
+++ b/mean_variance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja portfela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9CE94B-F194-40CF-8299-DD7A72F7E665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A88A5D-29A0-4ECF-8CED-489670EFFB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="means" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,6 @@
     <t xml:space="preserve">0.0017 </t>
   </si>
   <si>
-    <t>−0.0017</t>
-  </si>
-  <si>
-    <t>−0.0021</t>
-  </si>
-  <si>
     <t>0.0770</t>
   </si>
   <si>
@@ -80,6 +74,12 @@
   </si>
   <si>
     <t>0.0392</t>
+  </si>
+  <si>
+    <t>-0.0017</t>
+  </si>
+  <si>
+    <t>-0.0021</t>
   </si>
 </sst>
 </file>
@@ -125,13 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -349,7 +350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -383,7 +384,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -394,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1479,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81B1576-28F5-4F1C-A540-B07FC17BCE41}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,39 +1504,39 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
